--- a/Data/Scaled costs incl assumptions.xlsx
+++ b/Data/Scaled costs incl assumptions.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\helen\Documents\GitHub\Buffelgrass\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58B25495-2F24-46CC-87A3-D37D76DFFFCE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{521F5EF4-E977-467F-809D-08A42C3291BB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19332" windowHeight="6048" xr2:uid="{5399CAC3-CB28-40CD-8FBA-9CF84B6CB4A3}"/>
   </bookViews>
   <sheets>
-    <sheet name="noCNT" sheetId="5" r:id="rId1"/>
+    <sheet name="CUT" sheetId="7" r:id="rId1"/>
     <sheet name="17.60" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="25">
   <si>
     <t>Treatment</t>
   </si>
@@ -49,9 +49,6 @@
     <t>CNT</t>
   </si>
   <si>
-    <t>Pull</t>
-  </si>
-  <si>
     <t>P</t>
   </si>
   <si>
@@ -71,9 +68,6 @@
   </si>
   <si>
     <t>H1x1x</t>
-  </si>
-  <si>
-    <t>Pull and herbicide</t>
   </si>
   <si>
     <t>PH</t>
@@ -102,6 +96,12 @@
   <si>
     <t>TotalCost2H</t>
   </si>
+  <si>
+    <t>Manual removal</t>
+  </si>
+  <si>
+    <t>Manual removal and herbicide</t>
+  </si>
 </sst>
 </file>
 
@@ -124,18 +124,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -150,7 +144,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -159,7 +153,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -473,22 +466,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4002233-1DFB-435B-A074-80AA55E80822}">
-  <dimension ref="A1:G49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81E292F6-14BA-4902-9969-6A9809C29C7D}">
+  <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A41" sqref="A34:XFD41"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50:XFD57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.5546875" customWidth="1"/>
     <col min="3" max="3" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -497,1190 +491,1337 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" t="s">
         <v>21</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2">
+        <v>316.32763650472435</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>25</v>
+      </c>
+      <c r="G2">
+        <f>F2*0.0001</f>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="H2">
+        <v>316.32763650472435</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3">
+        <v>416.11054601889748</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+      <c r="F3">
+        <v>100</v>
+      </c>
+      <c r="G3">
+        <f>F3*0.0001</f>
+        <v>0.01</v>
+      </c>
+      <c r="H3">
+        <v>416.11054601889748</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4">
+        <v>549.15442537112824</v>
+      </c>
+      <c r="E4">
+        <v>8</v>
+      </c>
+      <c r="F4">
+        <v>200</v>
+      </c>
+      <c r="G4">
+        <f>F4*0.0001</f>
+        <v>0.02</v>
+      </c>
+      <c r="H4">
+        <v>549.15442537112824</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5">
+        <v>1613.5054601889744</v>
+      </c>
+      <c r="E5">
+        <v>40</v>
+      </c>
+      <c r="F5">
+        <v>1000</v>
+      </c>
+      <c r="G5">
+        <f>F5*0.0001</f>
+        <v>0.1</v>
+      </c>
+      <c r="H5">
+        <v>1613.5054601889744</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6">
+        <v>2943.9442537112823</v>
+      </c>
+      <c r="E6">
+        <v>80</v>
+      </c>
+      <c r="F6">
+        <v>2000</v>
+      </c>
+      <c r="G6">
+        <f>F6*0.0001</f>
+        <v>0.2</v>
+      </c>
+      <c r="H6">
+        <v>2943.9442537112823</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7">
+        <v>5604.8218407558998</v>
+      </c>
+      <c r="E7">
+        <v>160</v>
+      </c>
+      <c r="F7">
+        <f>E7*25</f>
+        <v>4000</v>
+      </c>
+      <c r="G7">
+        <f>F7*0.0001</f>
+        <v>0.4</v>
+      </c>
+      <c r="H7">
+        <v>5604.8218407558998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8">
+        <v>27224.452235493402</v>
+      </c>
+      <c r="E8">
+        <v>800</v>
+      </c>
+      <c r="F8">
+        <f>E8*25</f>
+        <v>20000</v>
+      </c>
+      <c r="G8">
+        <f>F8*0.0001</f>
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <v>26891.842537112825</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9">
+        <v>54099.315864644021</v>
+      </c>
+      <c r="E9">
+        <v>1600</v>
+      </c>
+      <c r="F9">
+        <f>E9*25</f>
+        <v>40000</v>
+      </c>
+      <c r="G9">
+        <f>F9*0.0001</f>
+        <v>4</v>
+      </c>
+      <c r="H9">
+        <v>53500.618407558984</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10">
+        <v>226.56420022637795</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>25</v>
+      </c>
+      <c r="G10">
+        <f>F10*0.0001</f>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="H10">
+        <v>234.37754300415574</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11">
+        <v>268.2568009055118</v>
+      </c>
+      <c r="E11">
+        <v>4</v>
+      </c>
+      <c r="F11">
+        <v>100</v>
+      </c>
+      <c r="G11">
+        <f>F11*0.0001</f>
+        <v>0.01</v>
+      </c>
+      <c r="H11">
+        <v>299.51017201662285</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12">
+        <v>323.84693514435685</v>
+      </c>
+      <c r="E12">
+        <v>8</v>
+      </c>
+      <c r="F12">
+        <v>200</v>
+      </c>
+      <c r="G12">
+        <f>F12*0.0001</f>
+        <v>0.02</v>
+      </c>
+      <c r="H12">
+        <v>386.35367736657906</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13">
+        <v>768.56800905511773</v>
+      </c>
+      <c r="E13">
+        <v>40</v>
+      </c>
+      <c r="F13">
+        <v>1000</v>
+      </c>
+      <c r="G13">
+        <f>F13*0.0001</f>
+        <v>0.1</v>
+      </c>
+      <c r="H13">
+        <v>1081.1017201662289</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14">
+        <v>1324.4693514435685</v>
+      </c>
+      <c r="E14">
+        <v>80</v>
+      </c>
+      <c r="F14">
+        <v>2000</v>
+      </c>
+      <c r="G14">
+        <f>F14*0.0001</f>
+        <v>0.2</v>
+      </c>
+      <c r="H14">
+        <v>1949.5367736657911</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15">
+        <v>2436.2720362204709</v>
+      </c>
+      <c r="E15">
+        <v>160</v>
+      </c>
+      <c r="F15">
+        <f>E15*25</f>
+        <v>4000</v>
+      </c>
+      <c r="G15">
+        <f>F15*0.0001</f>
+        <v>0.4</v>
+      </c>
+      <c r="H15">
+        <v>3686.4068806649157</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16">
+        <v>11469.6688500328</v>
+      </c>
+      <c r="E16">
+        <v>800</v>
+      </c>
+      <c r="F16">
+        <f>E16*25</f>
+        <v>20000</v>
+      </c>
+      <c r="G16">
+        <f>F16*0.0001</f>
+        <v>2</v>
+      </c>
+      <c r="H16">
+        <v>17581.36773665791</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17">
+        <v>22698.875966279513</v>
+      </c>
+      <c r="E17">
+        <v>1600</v>
+      </c>
+      <c r="F17">
+        <f>E17*25</f>
+        <v>40000</v>
+      </c>
+      <c r="G17">
+        <f>F17*0.0001</f>
+        <v>4</v>
+      </c>
+      <c r="H17">
+        <v>34950.068806649149</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18">
+        <v>315.19641532067044</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>25</v>
+      </c>
+      <c r="G18">
+        <f>F18*0.0001</f>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="H18">
+        <v>365.64847027067049</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19">
+        <v>367.58566128268171</v>
+      </c>
+      <c r="E19">
+        <v>4</v>
+      </c>
+      <c r="F19">
+        <v>100</v>
+      </c>
+      <c r="G19">
+        <f>F19*0.0001</f>
+        <v>0.01</v>
+      </c>
+      <c r="H19">
+        <v>441.79388108268171</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20">
+        <v>437.43798923203008</v>
+      </c>
+      <c r="E20">
+        <v>8</v>
+      </c>
+      <c r="F20">
+        <v>200</v>
+      </c>
+      <c r="G20">
+        <f>F20*0.0001</f>
+        <v>0.02</v>
+      </c>
+      <c r="H20">
+        <v>543.32109549869676</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21">
+        <v>996.25661282681722</v>
+      </c>
+      <c r="E21">
+        <v>40</v>
+      </c>
+      <c r="F21">
+        <v>1000</v>
+      </c>
+      <c r="G21">
+        <f>F21*0.0001</f>
+        <v>0.1</v>
+      </c>
+      <c r="H21">
+        <v>1355.5388108268171</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22">
+        <v>1694.7798923203013</v>
+      </c>
+      <c r="E22">
+        <v>80</v>
+      </c>
+      <c r="F22">
+        <v>2000</v>
+      </c>
+      <c r="G22">
+        <f>F22*0.0001</f>
+        <v>0.2</v>
+      </c>
+      <c r="H22">
+        <v>2370.8109549869678</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23">
+        <v>3091.8264513072691</v>
+      </c>
+      <c r="E23">
+        <v>160</v>
+      </c>
+      <c r="F23">
+        <f>E23*25</f>
+        <v>4000</v>
+      </c>
+      <c r="G23">
+        <f>F23*0.0001</f>
+        <v>0.4</v>
+      </c>
+      <c r="H23">
+        <v>4401.3552433072691</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24">
+        <v>14442.829743076381</v>
+      </c>
+      <c r="E24">
+        <v>800</v>
+      </c>
+      <c r="F24">
+        <f>E24*25</f>
+        <v>20000</v>
+      </c>
+      <c r="G24">
+        <f>F24*0.0001</f>
+        <v>2</v>
+      </c>
+      <c r="H24">
+        <v>20645.70954986968</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25">
+        <v>28552.999988844756</v>
+      </c>
+      <c r="E25">
+        <v>1600</v>
+      </c>
+      <c r="F25">
+        <f>E25*25</f>
+        <v>40000</v>
+      </c>
+      <c r="G25">
+        <f>F25*0.0001</f>
+        <v>4</v>
+      </c>
+      <c r="H25">
+        <v>40951.15243307269</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26">
+        <v>519.34585648904635</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>25</v>
+      </c>
+      <c r="G26">
+        <f>F26*0.0001</f>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="H26">
+        <v>562.08504871126854</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27">
+        <v>546.18342595618503</v>
+      </c>
+      <c r="E27">
+        <v>4</v>
+      </c>
+      <c r="F27">
+        <v>100</v>
+      </c>
+      <c r="G27">
+        <f>F27*0.0001</f>
+        <v>0.01</v>
+      </c>
+      <c r="H27">
+        <v>589.54019484507398</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28">
+        <v>581.9668519123702</v>
+      </c>
+      <c r="E28">
+        <v>8</v>
+      </c>
+      <c r="F28">
+        <v>200</v>
+      </c>
+      <c r="G28">
+        <f>F28*0.0001</f>
+        <v>0.02</v>
+      </c>
+      <c r="H28">
+        <v>626.14705635681469</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29">
+        <v>868.23425956185133</v>
+      </c>
+      <c r="E29">
+        <v>40</v>
+      </c>
+      <c r="F29">
+        <v>1000</v>
+      </c>
+      <c r="G29">
+        <f>F29*0.0001</f>
+        <v>0.1</v>
+      </c>
+      <c r="H29">
+        <v>919.0019484507402</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30">
+        <v>1226.0685191237028</v>
+      </c>
+      <c r="E30">
+        <v>80</v>
+      </c>
+      <c r="F30">
+        <v>2000</v>
+      </c>
+      <c r="G30">
+        <f>F30*0.0001</f>
+        <v>0.2</v>
+      </c>
+      <c r="H30">
+        <v>1285.0705635681472</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31">
+        <v>1941.7370382474051</v>
+      </c>
+      <c r="E31">
+        <v>160</v>
+      </c>
+      <c r="F31">
+        <f>E31*25</f>
+        <v>4000</v>
+      </c>
+      <c r="G31">
+        <f>F31*0.0001</f>
+        <v>0.4</v>
+      </c>
+      <c r="H31">
+        <v>2017.2077938029606</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>2</v>
+      </c>
+      <c r="B32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32">
+        <v>7756.5437561274894</v>
+      </c>
+      <c r="E32">
+        <v>800</v>
+      </c>
+      <c r="F32">
+        <f>E32*25</f>
+        <v>20000</v>
+      </c>
+      <c r="G32">
+        <f>F32*0.0001</f>
+        <v>2</v>
+      </c>
+      <c r="H32">
+        <v>7874.3056356814704</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>2</v>
+      </c>
+      <c r="B33" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33">
+        <v>14984.795799276882</v>
+      </c>
+      <c r="E33">
+        <v>1600</v>
+      </c>
+      <c r="F33">
+        <f>E33*25</f>
+        <v>40000</v>
+      </c>
+      <c r="G33">
+        <f>F33*0.0001</f>
+        <v>4</v>
+      </c>
+      <c r="H33">
+        <v>15195.677938029607</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B34" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="C34" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34">
+        <v>211.2293455555556</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>25</v>
+      </c>
+      <c r="G34">
+        <f>F34*0.0001</f>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="H34">
+        <v>246.69968430555556</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35">
+        <v>316.91738222222227</v>
+      </c>
+      <c r="E35">
+        <v>4</v>
+      </c>
+      <c r="F35">
+        <v>100</v>
+      </c>
+      <c r="G35">
+        <f>F35*0.0001</f>
+        <v>0.01</v>
+      </c>
+      <c r="H35">
+        <v>458.79873722222226</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36">
+        <v>457.83476444444443</v>
+      </c>
+      <c r="E36">
+        <v>8</v>
+      </c>
+      <c r="F36">
+        <v>200</v>
+      </c>
+      <c r="G36">
+        <f>F36*0.0001</f>
+        <v>0.02</v>
+      </c>
+      <c r="H36">
+        <v>741.59747444444452</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37">
+        <v>1585.1738222222223</v>
+      </c>
+      <c r="E37">
+        <v>40</v>
+      </c>
+      <c r="F37">
+        <v>1000</v>
+      </c>
+      <c r="G37">
+        <f>F37*0.0001</f>
+        <v>0.1</v>
+      </c>
+      <c r="H37">
+        <v>3003.9873722222223</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38">
+        <v>2994.347644444445</v>
+      </c>
+      <c r="E38">
+        <v>80</v>
+      </c>
+      <c r="F38">
+        <v>2000</v>
+      </c>
+      <c r="G38">
+        <f>F38*0.0001</f>
+        <v>0.2</v>
+      </c>
+      <c r="H38">
+        <v>5831.9747444444447</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39">
+        <v>5812.6952888888891</v>
+      </c>
+      <c r="E39">
+        <v>160</v>
+      </c>
+      <c r="F39">
+        <f>E39*25</f>
+        <v>4000</v>
+      </c>
+      <c r="G39">
+        <f>F39*0.0001</f>
+        <v>0.4</v>
+      </c>
+      <c r="H39">
+        <v>11487.949488888889</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>2</v>
+      </c>
+      <c r="B40" t="s">
+        <v>23</v>
+      </c>
+      <c r="C40" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40">
+        <v>28711.769899999999</v>
+      </c>
+      <c r="E40">
+        <v>800</v>
+      </c>
+      <c r="F40">
+        <f>E40*25</f>
+        <v>20000</v>
+      </c>
+      <c r="G40">
+        <f>F40*0.0001</f>
+        <v>2</v>
+      </c>
+      <c r="H40">
+        <v>56735.747444444452</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>2</v>
+      </c>
+      <c r="B41" t="s">
+        <v>23</v>
+      </c>
+      <c r="C41" t="s">
+        <v>7</v>
+      </c>
+      <c r="D41">
+        <v>57177.081108888902</v>
+      </c>
+      <c r="E41">
+        <v>1600</v>
+      </c>
+      <c r="F41">
+        <f>E41*25</f>
+        <v>40000</v>
+      </c>
+      <c r="G41">
+        <f>F41*0.0001</f>
+        <v>4</v>
+      </c>
+      <c r="H41">
+        <v>113295.4948888889</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B42" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2">
+      <c r="C42" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D42">
+        <v>323.88551809901043</v>
+      </c>
+      <c r="E42">
         <v>1</v>
       </c>
-      <c r="E2">
+      <c r="F42">
         <v>25</v>
       </c>
-      <c r="F2">
-        <f>E2*0.0001</f>
+      <c r="G42">
+        <f>F42*0.0001</f>
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="G2">
-        <v>318.59037378250213</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3">
+      <c r="H42">
+        <v>374.47885698789929</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D43">
+        <v>384.74207239604169</v>
+      </c>
+      <c r="E43">
         <v>4</v>
       </c>
-      <c r="E3">
+      <c r="F43">
         <v>100</v>
       </c>
-      <c r="F3">
-        <f>E3*0.0001</f>
+      <c r="G43">
+        <f>F43*0.0001</f>
         <v>0.01</v>
       </c>
-      <c r="G3">
-        <v>425.16149513000857</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4">
+      <c r="H43">
+        <v>459.5154279515973</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D44">
+        <v>465.88414479208348</v>
+      </c>
+      <c r="E44">
         <v>8</v>
       </c>
-      <c r="E4">
+      <c r="F44">
         <v>200</v>
       </c>
-      <c r="F4">
-        <f>E4*0.0001</f>
+      <c r="G44">
+        <f>F44*0.0001</f>
         <v>0.02</v>
       </c>
-      <c r="G4" s="4">
-        <v>567.25632359335043</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5">
+      <c r="H44">
+        <v>572.89752256986117</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D45">
+        <v>1115.0207239604169</v>
+      </c>
+      <c r="E45">
         <v>40</v>
       </c>
-      <c r="E5">
+      <c r="F45">
         <v>1000</v>
       </c>
-      <c r="F5">
-        <f>E5*0.0001</f>
+      <c r="G45">
+        <f>F45*0.0001</f>
         <v>0.1</v>
       </c>
-      <c r="G5">
-        <v>1704.0149513000856</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6">
+      <c r="H45">
+        <v>1479.9542795159728</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D46">
+        <v>1926.4414479208344</v>
+      </c>
+      <c r="E46">
         <v>80</v>
       </c>
-      <c r="E6">
+      <c r="F46">
         <v>2000</v>
       </c>
-      <c r="F6">
-        <f>E6*0.0001</f>
+      <c r="G46">
+        <f>F46*0.0001</f>
         <v>0.2</v>
       </c>
-      <c r="G6">
-        <v>3124.9632359335046</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7">
+      <c r="H46">
+        <v>2613.7752256986118</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D47">
+        <v>3549.2828958416676</v>
+      </c>
+      <c r="E47">
         <v>160</v>
       </c>
-      <c r="E7">
-        <f>D7*25</f>
+      <c r="F47">
+        <f>E47*25</f>
         <v>4000</v>
       </c>
-      <c r="F7">
-        <f>E7*0.0001</f>
+      <c r="G47">
+        <f>F47*0.0001</f>
         <v>0.4</v>
       </c>
-      <c r="G7">
-        <v>5966.8598052003435</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8">
+      <c r="H47">
+        <v>4881.4171180638914</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>2</v>
+      </c>
+      <c r="B48" t="s">
+        <v>24</v>
+      </c>
+      <c r="C48" t="s">
+        <v>14</v>
+      </c>
+      <c r="D48">
+        <v>16734.869660198441</v>
+      </c>
+      <c r="E48">
         <v>800</v>
       </c>
-      <c r="E8">
-        <f>D8*25</f>
+      <c r="F48">
+        <f>E48*25</f>
         <v>20000</v>
       </c>
-      <c r="F8">
-        <f>E8*0.0001</f>
-        <v>2</v>
-      </c>
-      <c r="G8">
-        <v>28702.032359335048</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9">
+      <c r="G48">
+        <f>F48*0.0001</f>
+        <v>2</v>
+      </c>
+      <c r="H48">
+        <v>23022.552256986117</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>2</v>
+      </c>
+      <c r="B49" t="s">
+        <v>24</v>
+      </c>
+      <c r="C49" t="s">
+        <v>14</v>
+      </c>
+      <c r="D49">
+        <v>33125.568284198867</v>
+      </c>
+      <c r="E49">
         <v>1600</v>
       </c>
-      <c r="E9">
-        <f>D9*25</f>
+      <c r="F49">
+        <f>E49*25</f>
         <v>40000</v>
       </c>
-      <c r="F9">
-        <f>E9*0.0001</f>
+      <c r="G49">
+        <f>F49*0.0001</f>
         <v>4</v>
       </c>
-      <c r="G9">
-        <v>57120.99805200343</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>25</v>
-      </c>
-      <c r="F10">
-        <f>E10*0.0001</f>
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="G10">
-        <v>230.6106730597113</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11">
-        <v>4</v>
-      </c>
-      <c r="E11">
-        <v>100</v>
-      </c>
-      <c r="F11">
-        <f>E11*0.0001</f>
-        <v>0.01</v>
-      </c>
-      <c r="G11">
-        <v>284.4426922388451</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12">
-        <v>8</v>
-      </c>
-      <c r="E12">
-        <v>200</v>
-      </c>
-      <c r="F12">
-        <f>E12*0.0001</f>
-        <v>0.02</v>
-      </c>
-      <c r="G12" s="4">
-        <v>356.21871781102357</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13">
-        <v>40</v>
-      </c>
-      <c r="E13">
-        <v>1000</v>
-      </c>
-      <c r="F13">
-        <f>E13*0.0001</f>
-        <v>0.1</v>
-      </c>
-      <c r="G13">
-        <v>930.42692238845109</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14">
-        <v>80</v>
-      </c>
-      <c r="E14">
-        <v>2000</v>
-      </c>
-      <c r="F14">
-        <f>E14*0.0001</f>
-        <v>0.2</v>
-      </c>
-      <c r="G14">
-        <v>1648.1871781102354</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15">
-        <v>160</v>
-      </c>
-      <c r="E15">
-        <f>D15*25</f>
-        <v>4000</v>
-      </c>
-      <c r="F15">
-        <f>E15*0.0001</f>
-        <v>0.4</v>
-      </c>
-      <c r="G15">
-        <v>3083.7076895538044</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16">
-        <v>800</v>
-      </c>
-      <c r="E16">
-        <f>D16*25</f>
-        <v>20000</v>
-      </c>
-      <c r="F16">
-        <f>E16*0.0001</f>
-        <v>2</v>
-      </c>
-      <c r="G16">
-        <v>14567.871781102356</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>2</v>
-      </c>
-      <c r="B17" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17">
-        <v>1600</v>
-      </c>
-      <c r="E17">
-        <f>D17*25</f>
-        <v>40000</v>
-      </c>
-      <c r="F17">
-        <f>E17*0.0001</f>
-        <v>4</v>
-      </c>
-      <c r="G17">
-        <v>28923.076895538041</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18">
-        <v>25</v>
-      </c>
-      <c r="F18">
-        <f>E18*0.0001</f>
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="G18">
-        <v>319.26517170955935</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19">
-        <v>4</v>
-      </c>
-      <c r="E19">
-        <v>100</v>
-      </c>
-      <c r="F19">
-        <f>E19*0.0001</f>
-        <v>0.01</v>
-      </c>
-      <c r="G19">
-        <v>383.86068683823726</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20">
-        <v>8</v>
-      </c>
-      <c r="E20">
-        <v>200</v>
-      </c>
-      <c r="F20">
-        <f>E20*0.0001</f>
-        <v>0.02</v>
-      </c>
-      <c r="G20" s="4">
-        <v>469.98804034314122</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21">
-        <v>40</v>
-      </c>
-      <c r="E21">
-        <v>1000</v>
-      </c>
-      <c r="F21">
-        <f>E21*0.0001</f>
-        <v>0.1</v>
-      </c>
-      <c r="G21">
-        <v>1159.0068683823729</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D22">
-        <v>80</v>
-      </c>
-      <c r="E22">
-        <v>2000</v>
-      </c>
-      <c r="F22">
-        <f>E22*0.0001</f>
-        <v>0.2</v>
-      </c>
-      <c r="G22">
-        <v>2020.2804034314122</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D23">
-        <v>160</v>
-      </c>
-      <c r="E23">
-        <f>D23*25</f>
-        <v>4000</v>
-      </c>
-      <c r="F23">
-        <f>E23*0.0001</f>
-        <v>0.4</v>
-      </c>
-      <c r="G23">
-        <v>3742.8274735294908</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>2</v>
-      </c>
-      <c r="B24" t="s">
-        <v>13</v>
-      </c>
-      <c r="C24" t="s">
-        <v>14</v>
-      </c>
-      <c r="D24">
-        <v>800</v>
-      </c>
-      <c r="E24">
-        <f>D24*25</f>
-        <v>20000</v>
-      </c>
-      <c r="F24">
-        <f>E24*0.0001</f>
-        <v>2</v>
-      </c>
-      <c r="G24">
-        <v>17523.204034314123</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>2</v>
-      </c>
-      <c r="B25" t="s">
-        <v>13</v>
-      </c>
-      <c r="C25" t="s">
-        <v>14</v>
-      </c>
-      <c r="D25">
-        <v>1600</v>
-      </c>
-      <c r="E25">
-        <f>D25*25</f>
-        <v>40000</v>
-      </c>
-      <c r="F25">
-        <f>E25*0.0001</f>
-        <v>4</v>
-      </c>
-      <c r="G25">
-        <v>34748.67473529491</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-      <c r="E26">
-        <v>25</v>
-      </c>
-      <c r="F26">
-        <f>E26*0.0001</f>
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="G26">
-        <v>521.31183760015745</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D27">
-        <v>4</v>
-      </c>
-      <c r="E27">
-        <v>100</v>
-      </c>
-      <c r="F27">
-        <f>E27*0.0001</f>
-        <v>0.01</v>
-      </c>
-      <c r="G27">
-        <v>554.04735040062951</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D28">
-        <v>8</v>
-      </c>
-      <c r="E28">
-        <v>200</v>
-      </c>
-      <c r="F28">
-        <f>E28*0.0001</f>
-        <v>0.02</v>
-      </c>
-      <c r="G28" s="4">
-        <v>597.69470080125916</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D29">
-        <v>40</v>
-      </c>
-      <c r="E29">
-        <v>1000</v>
-      </c>
-      <c r="F29">
-        <f>E29*0.0001</f>
-        <v>0.1</v>
-      </c>
-      <c r="G29">
-        <v>946.87350400629578</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D30">
-        <v>80</v>
-      </c>
-      <c r="E30">
-        <v>2000</v>
-      </c>
-      <c r="F30">
-        <f>E30*0.0001</f>
-        <v>0.2</v>
-      </c>
-      <c r="G30">
-        <v>1383.3470080125917</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>2</v>
-      </c>
-      <c r="B31" t="s">
-        <v>17</v>
-      </c>
-      <c r="C31" t="s">
-        <v>18</v>
-      </c>
-      <c r="D31">
-        <v>160</v>
-      </c>
-      <c r="E31">
-        <f>D31*25</f>
-        <v>4000</v>
-      </c>
-      <c r="F31">
-        <f>E31*0.0001</f>
-        <v>0.4</v>
-      </c>
-      <c r="G31">
-        <v>2256.2940160251828</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>2</v>
-      </c>
-      <c r="B32" t="s">
-        <v>17</v>
-      </c>
-      <c r="C32" t="s">
-        <v>18</v>
-      </c>
-      <c r="D32">
-        <v>800</v>
-      </c>
-      <c r="E32">
-        <f>D32*25</f>
-        <v>20000</v>
-      </c>
-      <c r="F32">
-        <f>E32*0.0001</f>
-        <v>2</v>
-      </c>
-      <c r="G32">
-        <v>9239.8700801259147</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>2</v>
-      </c>
-      <c r="B33" t="s">
-        <v>17</v>
-      </c>
-      <c r="C33" t="s">
-        <v>18</v>
-      </c>
-      <c r="D33">
-        <v>1600</v>
-      </c>
-      <c r="E33">
-        <f>D33*25</f>
-        <v>40000</v>
-      </c>
-      <c r="F33">
-        <f>E33*0.0001</f>
-        <v>4</v>
-      </c>
-      <c r="G33">
-        <v>17969.340160251828</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D34">
-        <v>1</v>
-      </c>
-      <c r="E34">
-        <v>25</v>
-      </c>
-      <c r="F34">
-        <f>E34*0.0001</f>
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="G34">
-        <v>214.19473606666671</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D35">
-        <v>4</v>
-      </c>
-      <c r="E35">
-        <v>100</v>
-      </c>
-      <c r="F35">
-        <f>E35*0.0001</f>
-        <v>0.01</v>
-      </c>
-      <c r="G35">
-        <v>328.77894426666671</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D36">
-        <v>8</v>
-      </c>
-      <c r="E36">
-        <v>200</v>
-      </c>
-      <c r="F36">
-        <f>E36*0.0001</f>
-        <v>0.02</v>
-      </c>
-      <c r="G36" s="4">
-        <v>481.55788853333337</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D37">
-        <v>40</v>
-      </c>
-      <c r="E37">
-        <v>1000</v>
-      </c>
-      <c r="F37">
-        <f>E37*0.0001</f>
-        <v>0.1</v>
-      </c>
-      <c r="G37">
-        <v>1703.7894426666667</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D38">
-        <v>80</v>
-      </c>
-      <c r="E38">
-        <v>2000</v>
-      </c>
-      <c r="F38">
-        <f>E38*0.0001</f>
-        <v>0.2</v>
-      </c>
-      <c r="G38">
-        <v>3231.5788853333338</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D39">
-        <v>160</v>
-      </c>
-      <c r="E39">
-        <f>D39*25</f>
-        <v>4000</v>
-      </c>
-      <c r="F39">
-        <f>E39*0.0001</f>
-        <v>0.4</v>
-      </c>
-      <c r="G39">
-        <v>6287.1577706666667</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>2</v>
-      </c>
-      <c r="B40" t="s">
-        <v>7</v>
-      </c>
-      <c r="C40" t="s">
-        <v>8</v>
-      </c>
-      <c r="D40">
-        <v>800</v>
-      </c>
-      <c r="E40">
-        <f>D40*25</f>
-        <v>20000</v>
-      </c>
-      <c r="F40">
-        <f>E40*0.0001</f>
-        <v>2</v>
-      </c>
-      <c r="G40">
-        <v>30731.788853333339</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>2</v>
-      </c>
-      <c r="B41" t="s">
-        <v>7</v>
-      </c>
-      <c r="C41" t="s">
-        <v>8</v>
-      </c>
-      <c r="D41">
-        <v>1600</v>
-      </c>
-      <c r="E41">
-        <f>D41*25</f>
-        <v>40000</v>
-      </c>
-      <c r="F41">
-        <f>E41*0.0001</f>
-        <v>4</v>
-      </c>
-      <c r="G41">
-        <v>61287.577706666671</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D42">
-        <v>1</v>
-      </c>
-      <c r="E42">
-        <v>25</v>
-      </c>
-      <c r="F42">
-        <f>E42*0.0001</f>
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="G42">
-        <v>326.29443743234378</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D43">
-        <v>4</v>
-      </c>
-      <c r="E43">
-        <v>100</v>
-      </c>
-      <c r="F43">
-        <f>E43*0.0001</f>
-        <v>0.01</v>
-      </c>
-      <c r="G43">
-        <v>394.37774972937501</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D44">
-        <v>8</v>
-      </c>
-      <c r="E44">
-        <v>200</v>
-      </c>
-      <c r="F44">
-        <f>E44*0.0001</f>
-        <v>0.02</v>
-      </c>
-      <c r="G44" s="4">
-        <v>485.15549945875011</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D45">
-        <v>40</v>
-      </c>
-      <c r="E45">
-        <v>1000</v>
-      </c>
-      <c r="F45">
-        <f>E45*0.0001</f>
-        <v>0.1</v>
-      </c>
-      <c r="G45">
-        <v>1211.3774972937504</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D46">
-        <v>80</v>
-      </c>
-      <c r="E46">
-        <v>2000</v>
-      </c>
-      <c r="F46">
-        <f>E46*0.0001</f>
-        <v>0.2</v>
-      </c>
-      <c r="G46">
-        <v>2119.1549945875013</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D47">
-        <v>160</v>
-      </c>
-      <c r="E47">
-        <f>D47*25</f>
-        <v>4000</v>
-      </c>
-      <c r="F47">
-        <f>E47*0.0001</f>
-        <v>0.4</v>
-      </c>
-      <c r="G47">
-        <v>3934.7099891750013</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>2</v>
-      </c>
-      <c r="B48" t="s">
-        <v>15</v>
-      </c>
-      <c r="C48" t="s">
-        <v>16</v>
-      </c>
-      <c r="D48">
-        <v>800</v>
-      </c>
-      <c r="E48">
-        <f>D48*25</f>
-        <v>20000</v>
-      </c>
-      <c r="F48">
-        <f>E48*0.0001</f>
-        <v>2</v>
-      </c>
-      <c r="G48">
-        <v>18459.149945875004</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>2</v>
-      </c>
-      <c r="B49" t="s">
-        <v>15</v>
-      </c>
-      <c r="C49" t="s">
-        <v>16</v>
-      </c>
-      <c r="D49">
-        <v>1600</v>
-      </c>
-      <c r="E49">
-        <f>D49*25</f>
-        <v>40000</v>
-      </c>
-      <c r="F49">
-        <f>E49*0.0001</f>
-        <v>4</v>
-      </c>
-      <c r="G49">
-        <v>36614.699891750017</v>
+      <c r="H49">
+        <v>45698.971180638902</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:G49">
+  <sortState ref="A2:H49">
     <sortCondition ref="B2:B49"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1691,20 +1832,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7FA8601-38ED-48B2-B20E-DEE72D9696F7}">
   <dimension ref="A1:H65"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="G70" sqref="G70"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.5546875" customWidth="1"/>
     <col min="3" max="3" width="6.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1713,15 +1854,18 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" t="s">
         <v>20</v>
       </c>
-      <c r="E1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1776,7 +1920,7 @@
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="H3">
-        <v>3.8264966666666669</v>
+        <v>5.7715044444444459</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -1784,10 +1928,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="D4">
         <v>211.2293455555556</v>
@@ -1803,7 +1947,7 @@
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="H4">
-        <v>214.19473606666671</v>
+        <v>246.69968430555556</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -1811,10 +1955,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D5">
         <v>323.88551809901043</v>
@@ -1830,7 +1974,7 @@
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="H5">
-        <v>326.29443743234378</v>
+        <v>374.47885698789929</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -1838,10 +1982,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="D6">
         <v>316.32763650472435</v>
@@ -1857,7 +2001,7 @@
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="H6">
-        <v>318.59037378250213</v>
+        <v>316.32763650472435</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -1865,10 +2009,10 @@
         <v>2</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="D7">
         <v>226.56420022637795</v>
@@ -1884,7 +2028,7 @@
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="H7">
-        <v>230.6106730597113</v>
+        <v>234.37754300415574</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -1892,10 +2036,10 @@
         <v>2</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="D8">
         <v>315.19641532067044</v>
@@ -1911,7 +2055,7 @@
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="H8">
-        <v>319.26517170955935</v>
+        <v>365.64847027067049</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -1919,10 +2063,10 @@
         <v>2</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D9">
         <v>519.34585648904635</v>
@@ -1938,7 +2082,7 @@
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="H9">
-        <v>521.31183760015745</v>
+        <v>562.08504871126854</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -1992,7 +2136,7 @@
         <v>0.01</v>
       </c>
       <c r="H11">
-        <v>15.305986666666668</v>
+        <v>23.086017777777784</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -2000,10 +2144,10 @@
         <v>2</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="D12">
         <v>316.91738222222227</v>
@@ -2019,7 +2163,7 @@
         <v>0.01</v>
       </c>
       <c r="H12">
-        <v>328.77894426666671</v>
+        <v>458.79873722222226</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -2027,10 +2171,10 @@
         <v>2</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D13">
         <v>384.74207239604169</v>
@@ -2046,7 +2190,7 @@
         <v>0.01</v>
       </c>
       <c r="H13">
-        <v>394.37774972937501</v>
+        <v>459.5154279515973</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -2054,10 +2198,10 @@
         <v>2</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="D14">
         <v>416.11054601889748</v>
@@ -2073,7 +2217,7 @@
         <v>0.01</v>
       </c>
       <c r="H14">
-        <v>425.16149513000857</v>
+        <v>416.11054601889748</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -2081,10 +2225,10 @@
         <v>2</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="D15">
         <v>268.2568009055118</v>
@@ -2100,7 +2244,7 @@
         <v>0.01</v>
       </c>
       <c r="H15">
-        <v>284.4426922388451</v>
+        <v>299.51017201662285</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -2108,10 +2252,10 @@
         <v>2</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="D16">
         <v>367.58566128268171</v>
@@ -2127,7 +2271,7 @@
         <v>0.01</v>
       </c>
       <c r="H16">
-        <v>383.86068683823726</v>
+        <v>441.79388108268171</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
@@ -2135,10 +2279,10 @@
         <v>2</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D17">
         <v>546.18342595618503</v>
@@ -2154,7 +2298,7 @@
         <v>0.01</v>
       </c>
       <c r="H17">
-        <v>554.04735040062951</v>
+        <v>589.54019484507398</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
@@ -2180,7 +2324,7 @@
         <f t="shared" si="0"/>
         <v>0.02</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H18">
         <v>1.135104752548509</v>
       </c>
     </row>
@@ -2207,8 +2351,8 @@
         <f t="shared" si="0"/>
         <v>0.02</v>
       </c>
-      <c r="H19" s="4">
-        <v>30.611973333333335</v>
+      <c r="H19">
+        <v>46.172035555555567</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
@@ -2216,10 +2360,10 @@
         <v>2</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="D20">
         <v>457.83476444444443</v>
@@ -2234,8 +2378,8 @@
         <f t="shared" si="0"/>
         <v>0.02</v>
       </c>
-      <c r="H20" s="4">
-        <v>481.55788853333337</v>
+      <c r="H20">
+        <v>741.59747444444452</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
@@ -2243,10 +2387,10 @@
         <v>2</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D21">
         <v>465.88414479208348</v>
@@ -2261,8 +2405,8 @@
         <f t="shared" si="0"/>
         <v>0.02</v>
       </c>
-      <c r="H21" s="4">
-        <v>485.15549945875011</v>
+      <c r="H21">
+        <v>572.89752256986117</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
@@ -2270,10 +2414,10 @@
         <v>2</v>
       </c>
       <c r="B22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="D22">
         <v>549.15442537112824</v>
@@ -2288,8 +2432,8 @@
         <f t="shared" si="0"/>
         <v>0.02</v>
       </c>
-      <c r="H22" s="4">
-        <v>567.25632359335043</v>
+      <c r="H22">
+        <v>549.15442537112824</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
@@ -2297,10 +2441,10 @@
         <v>2</v>
       </c>
       <c r="B23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="D23">
         <v>323.84693514435685</v>
@@ -2315,8 +2459,8 @@
         <f t="shared" si="0"/>
         <v>0.02</v>
       </c>
-      <c r="H23" s="4">
-        <v>356.21871781102357</v>
+      <c r="H23">
+        <v>386.35367736657906</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
@@ -2324,10 +2468,10 @@
         <v>2</v>
       </c>
       <c r="B24" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="D24">
         <v>437.43798923203008</v>
@@ -2342,8 +2486,8 @@
         <f t="shared" si="0"/>
         <v>0.02</v>
       </c>
-      <c r="H24" s="4">
-        <v>469.98804034314122</v>
+      <c r="H24">
+        <v>543.32109549869676</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
@@ -2351,10 +2495,10 @@
         <v>2</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D25">
         <v>581.9668519123702</v>
@@ -2369,8 +2513,8 @@
         <f t="shared" si="0"/>
         <v>0.02</v>
       </c>
-      <c r="H25" s="4">
-        <v>597.69470080125916</v>
+      <c r="H25">
+        <v>626.14705635681469</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
@@ -2424,7 +2568,7 @@
         <v>0.1</v>
       </c>
       <c r="H27">
-        <v>153.05986666666666</v>
+        <v>230.86017777777784</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
@@ -2432,10 +2576,10 @@
         <v>2</v>
       </c>
       <c r="B28" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="D28">
         <v>1585.1738222222223</v>
@@ -2451,7 +2595,7 @@
         <v>0.1</v>
       </c>
       <c r="H28">
-        <v>1703.7894426666667</v>
+        <v>3003.9873722222223</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
@@ -2459,10 +2603,10 @@
         <v>2</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D29">
         <v>1115.0207239604169</v>
@@ -2478,7 +2622,7 @@
         <v>0.1</v>
       </c>
       <c r="H29">
-        <v>1211.3774972937504</v>
+        <v>1479.9542795159728</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
@@ -2486,10 +2630,10 @@
         <v>2</v>
       </c>
       <c r="B30" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="D30">
         <v>1613.5054601889744</v>
@@ -2505,7 +2649,7 @@
         <v>0.1</v>
       </c>
       <c r="H30">
-        <v>1704.0149513000856</v>
+        <v>1613.5054601889744</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
@@ -2513,10 +2657,10 @@
         <v>2</v>
       </c>
       <c r="B31" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="D31">
         <v>768.56800905511773</v>
@@ -2532,7 +2676,7 @@
         <v>0.1</v>
       </c>
       <c r="H31">
-        <v>930.42692238845109</v>
+        <v>1081.1017201662289</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
@@ -2540,10 +2684,10 @@
         <v>2</v>
       </c>
       <c r="B32" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="D32">
         <v>996.25661282681722</v>
@@ -2559,7 +2703,7 @@
         <v>0.1</v>
       </c>
       <c r="H32">
-        <v>1159.0068683823729</v>
+        <v>1355.5388108268171</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
@@ -2567,10 +2711,10 @@
         <v>2</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D33">
         <v>868.23425956185133</v>
@@ -2586,7 +2730,7 @@
         <v>0.1</v>
       </c>
       <c r="H33">
-        <v>946.87350400629578</v>
+        <v>919.0019484507402</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
@@ -2640,7 +2784,7 @@
         <v>0.2</v>
       </c>
       <c r="H35">
-        <v>306.11973333333333</v>
+        <v>461.72035555555567</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
@@ -2648,10 +2792,10 @@
         <v>2</v>
       </c>
       <c r="B36" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="D36">
         <v>2994.347644444445</v>
@@ -2667,7 +2811,7 @@
         <v>0.2</v>
       </c>
       <c r="H36">
-        <v>3231.5788853333338</v>
+        <v>5831.9747444444447</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
@@ -2675,10 +2819,10 @@
         <v>2</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D37">
         <v>1926.4414479208344</v>
@@ -2694,7 +2838,7 @@
         <v>0.2</v>
       </c>
       <c r="H37">
-        <v>2119.1549945875013</v>
+        <v>2613.7752256986118</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
@@ -2702,10 +2846,10 @@
         <v>2</v>
       </c>
       <c r="B38" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="D38">
         <v>2943.9442537112823</v>
@@ -2721,7 +2865,7 @@
         <v>0.2</v>
       </c>
       <c r="H38">
-        <v>3124.9632359335046</v>
+        <v>2943.9442537112823</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
@@ -2729,10 +2873,10 @@
         <v>2</v>
       </c>
       <c r="B39" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="D39">
         <v>1324.4693514435685</v>
@@ -2748,7 +2892,7 @@
         <v>0.2</v>
       </c>
       <c r="H39">
-        <v>1648.1871781102354</v>
+        <v>1949.5367736657911</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
@@ -2756,10 +2900,10 @@
         <v>2</v>
       </c>
       <c r="B40" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="D40">
         <v>1694.7798923203013</v>
@@ -2775,7 +2919,7 @@
         <v>0.2</v>
       </c>
       <c r="H40">
-        <v>2020.2804034314122</v>
+        <v>2370.8109549869678</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
@@ -2783,10 +2927,10 @@
         <v>2</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D41">
         <v>1226.0685191237028</v>
@@ -2802,7 +2946,7 @@
         <v>0.2</v>
       </c>
       <c r="H41">
-        <v>1383.3470080125917</v>
+        <v>1285.0705635681472</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
@@ -2858,7 +3002,7 @@
         <v>0.4</v>
       </c>
       <c r="H43">
-        <v>612.23946666666666</v>
+        <v>923.44071111111134</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
@@ -2866,10 +3010,10 @@
         <v>2</v>
       </c>
       <c r="B44" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="D44">
         <v>5812.6952888888891</v>
@@ -2886,7 +3030,7 @@
         <v>0.4</v>
       </c>
       <c r="H44">
-        <v>6287.1577706666667</v>
+        <v>11487.949488888889</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
@@ -2894,10 +3038,10 @@
         <v>2</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D45">
         <v>3549.2828958416676</v>
@@ -2914,7 +3058,7 @@
         <v>0.4</v>
       </c>
       <c r="H45">
-        <v>3934.7099891750013</v>
+        <v>4881.4171180638914</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
@@ -2922,10 +3066,10 @@
         <v>2</v>
       </c>
       <c r="B46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="D46">
         <v>5604.8218407558998</v>
@@ -2942,7 +3086,7 @@
         <v>0.4</v>
       </c>
       <c r="H46">
-        <v>5966.8598052003435</v>
+        <v>5604.8218407558998</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
@@ -2950,10 +3094,10 @@
         <v>2</v>
       </c>
       <c r="B47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="D47">
         <v>2436.2720362204709</v>
@@ -2970,7 +3114,7 @@
         <v>0.4</v>
       </c>
       <c r="H47">
-        <v>3083.7076895538044</v>
+        <v>3686.4068806649157</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
@@ -2978,10 +3122,10 @@
         <v>2</v>
       </c>
       <c r="B48" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="D48">
         <v>3091.8264513072691</v>
@@ -2998,7 +3142,7 @@
         <v>0.4</v>
       </c>
       <c r="H48">
-        <v>3742.8274735294908</v>
+        <v>4401.3552433072691</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
@@ -3006,10 +3150,10 @@
         <v>2</v>
       </c>
       <c r="B49" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C49" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D49">
         <v>1941.7370382474051</v>
@@ -3026,7 +3170,7 @@
         <v>0.4</v>
       </c>
       <c r="H49">
-        <v>2256.2940160251828</v>
+        <v>2017.2077938029606</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
@@ -3082,7 +3226,7 @@
         <v>2</v>
       </c>
       <c r="H51">
-        <v>3061.1973333333335</v>
+        <v>4617.2035555555567</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
@@ -3090,10 +3234,10 @@
         <v>2</v>
       </c>
       <c r="B52" t="s">
+        <v>23</v>
+      </c>
+      <c r="C52" t="s">
         <v>7</v>
-      </c>
-      <c r="C52" t="s">
-        <v>8</v>
       </c>
       <c r="D52">
         <v>28711.769899999999</v>
@@ -3110,7 +3254,7 @@
         <v>2</v>
       </c>
       <c r="H52">
-        <v>30731.788853333339</v>
+        <v>56735.747444444452</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
@@ -3118,10 +3262,10 @@
         <v>2</v>
       </c>
       <c r="B53" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C53" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D53">
         <v>16734.869660198441</v>
@@ -3138,7 +3282,7 @@
         <v>2</v>
       </c>
       <c r="H53">
-        <v>18459.149945875004</v>
+        <v>23022.552256986117</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
@@ -3146,10 +3290,10 @@
         <v>2</v>
       </c>
       <c r="B54" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54" t="s">
         <v>9</v>
-      </c>
-      <c r="C54" t="s">
-        <v>10</v>
       </c>
       <c r="D54">
         <v>27224.452235493402</v>
@@ -3166,7 +3310,7 @@
         <v>2</v>
       </c>
       <c r="H54">
-        <v>28702.032359335048</v>
+        <v>26891.842537112825</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
@@ -3174,10 +3318,10 @@
         <v>2</v>
       </c>
       <c r="B55" t="s">
+        <v>10</v>
+      </c>
+      <c r="C55" t="s">
         <v>11</v>
-      </c>
-      <c r="C55" t="s">
-        <v>12</v>
       </c>
       <c r="D55">
         <v>11469.6688500328</v>
@@ -3194,7 +3338,7 @@
         <v>2</v>
       </c>
       <c r="H55">
-        <v>14567.871781102356</v>
+        <v>17581.36773665791</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
@@ -3202,10 +3346,10 @@
         <v>2</v>
       </c>
       <c r="B56" t="s">
+        <v>12</v>
+      </c>
+      <c r="C56" t="s">
         <v>13</v>
-      </c>
-      <c r="C56" t="s">
-        <v>14</v>
       </c>
       <c r="D56">
         <v>14442.829743076381</v>
@@ -3222,7 +3366,7 @@
         <v>2</v>
       </c>
       <c r="H56">
-        <v>17523.204034314123</v>
+        <v>20645.70954986968</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
@@ -3230,10 +3374,10 @@
         <v>2</v>
       </c>
       <c r="B57" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C57" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D57">
         <v>7756.5437561274894</v>
@@ -3250,7 +3394,7 @@
         <v>2</v>
       </c>
       <c r="H57">
-        <v>9239.8700801259147</v>
+        <v>7874.3056356814704</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
@@ -3306,7 +3450,7 @@
         <v>4</v>
       </c>
       <c r="H59">
-        <v>6122.394666666667</v>
+        <v>9234.4071111111134</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
@@ -3314,10 +3458,10 @@
         <v>2</v>
       </c>
       <c r="B60" t="s">
+        <v>23</v>
+      </c>
+      <c r="C60" t="s">
         <v>7</v>
-      </c>
-      <c r="C60" t="s">
-        <v>8</v>
       </c>
       <c r="D60">
         <v>57177.081108888902</v>
@@ -3334,7 +3478,7 @@
         <v>4</v>
       </c>
       <c r="H60">
-        <v>61287.577706666671</v>
+        <v>113295.4948888889</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
@@ -3342,10 +3486,10 @@
         <v>2</v>
       </c>
       <c r="B61" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C61" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D61">
         <v>33125.568284198867</v>
@@ -3362,7 +3506,7 @@
         <v>4</v>
       </c>
       <c r="H61">
-        <v>36614.699891750017</v>
+        <v>45698.971180638902</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
@@ -3370,10 +3514,10 @@
         <v>2</v>
       </c>
       <c r="B62" t="s">
+        <v>8</v>
+      </c>
+      <c r="C62" t="s">
         <v>9</v>
-      </c>
-      <c r="C62" t="s">
-        <v>10</v>
       </c>
       <c r="D62">
         <v>54099.315864644021</v>
@@ -3390,7 +3534,7 @@
         <v>4</v>
       </c>
       <c r="H62">
-        <v>57120.99805200343</v>
+        <v>53500.618407558984</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
@@ -3398,10 +3542,10 @@
         <v>2</v>
       </c>
       <c r="B63" t="s">
+        <v>10</v>
+      </c>
+      <c r="C63" t="s">
         <v>11</v>
-      </c>
-      <c r="C63" t="s">
-        <v>12</v>
       </c>
       <c r="D63">
         <v>22698.875966279513</v>
@@ -3418,7 +3562,7 @@
         <v>4</v>
       </c>
       <c r="H63">
-        <v>28923.076895538041</v>
+        <v>34950.068806649149</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
@@ -3426,10 +3570,10 @@
         <v>2</v>
       </c>
       <c r="B64" t="s">
+        <v>12</v>
+      </c>
+      <c r="C64" t="s">
         <v>13</v>
-      </c>
-      <c r="C64" t="s">
-        <v>14</v>
       </c>
       <c r="D64">
         <v>28552.999988844756</v>
@@ -3446,7 +3590,7 @@
         <v>4</v>
       </c>
       <c r="H64">
-        <v>34748.67473529491</v>
+        <v>40951.15243307269</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
@@ -3454,10 +3598,10 @@
         <v>2</v>
       </c>
       <c r="B65" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C65" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D65">
         <v>14984.795799276882</v>
@@ -3474,7 +3618,7 @@
         <v>4</v>
       </c>
       <c r="H65">
-        <v>17969.340160251828</v>
+        <v>15195.677938029607</v>
       </c>
     </row>
   </sheetData>
